--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -23,7 +23,22 @@
     <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'12.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'01.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'05.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'06.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'08.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12.25'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -856,6 +871,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -1129,6 +1145,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -1402,6 +1419,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -1675,6 +1693,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -1948,6 +1967,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -2221,6 +2241,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -2591,6 +2612,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -2896,6 +2918,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -3205,6 +3228,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -3534,6 +3558,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -3855,6 +3880,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -4156,6 +4182,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -4429,6 +4456,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -4702,6 +4730,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -113,12 +113,6 @@
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -146,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -169,14 +163,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -190,6 +181,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF6666"/>
           <bgColor rgb="00FF6666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFA500"/>
+          <bgColor rgb="00FFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -887,30 +886,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -1161,30 +1166,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -1435,30 +1446,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -1709,30 +1726,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -1983,30 +2006,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -2257,30 +2286,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -2628,30 +2663,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -2934,30 +2975,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -3244,30 +3291,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -3574,30 +3627,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -3896,30 +3955,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -4032,12 +4097,16 @@
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4198,30 +4267,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -4472,30 +4547,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -4746,30 +4827,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -7,37 +7,38 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Resumo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12.24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="01.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="02.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="03.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="04.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="05.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="06.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="07.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="08.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="09.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="11.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="12.25" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="irregulares" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11.24'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'12.24'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'01.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'05.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'06.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'07.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'08.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'11.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'01.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'02.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'03.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'04.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'05.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'06.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'09.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -46,13 +47,46 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <color theme="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -70,12 +104,54 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C6AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,13 +190,51 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -140,27 +254,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,300 +810,561 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="18.28515625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Regional</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Município</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>UVR</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Técnico de UVR</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Situação</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Data de Envio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Validado pelo Regional</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observações</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Formulários para Deletar (ID)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Validado Equip de TI</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Resposta Equipe de TI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>01.25</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>02.25</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>03.25</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>04.25</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>05.25</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>06.25</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>07.25</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>08.25</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>09.25</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Jackson Souza Soeiro</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>28/12/2024</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>30/12/2024</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="B2" s="5">
+        <f>COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="C2" s="5">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="D2" s="5">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="E2" s="5">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="F2" s="5">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="G2" s="5">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="H2" s="5">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="5">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="J2" s="5">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="K2" s="5">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="L2" s="5">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="M2" s="5">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="N2" s="5">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="O2" s="5">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
+        <v/>
+      </c>
+      <c r="P2" s="6">
+        <f>SUM(B2:O2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="B3" s="8">
+        <f>COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="C3" s="8">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="D3" s="8">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="E3" s="8">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="F3" s="8">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="8">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="H3" s="8">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="8">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="J3" s="8">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="K3" s="8">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="L3" s="8">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="8">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="8">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="O3" s="8">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
+        <v/>
+      </c>
+      <c r="P3" s="9">
+        <f>SUM(B3:O3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
+      <c r="B4" s="11">
+        <f>COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="C4" s="11">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="D4" s="11">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="E4" s="11">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="F4" s="11">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="G4" s="11">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="H4" s="11">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="11">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="J4" s="11">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="K4" s="11">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="11">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="11">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="11">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="O4" s="11">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
+        <v/>
+      </c>
+      <c r="P4" s="12">
+        <f>SUM(B4:O4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="B5" s="14">
+        <f>COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="C5" s="14">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="14">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="E5" s="14">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="14">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="G5" s="14">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="14">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="I5" s="14">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="J5" s="14">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="14">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="14">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="14">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="14">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="O5" s="14">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="15">
+        <f>SUM(B5:O5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
+      <c r="B6" s="17">
+        <f>COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="C6" s="17">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="D6" s="17">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="E6" s="17">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="17">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="G6" s="17">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="17">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="I6" s="17">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="J6" s="17">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="K6" s="17">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="17">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="17">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="17">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="O6" s="17">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
+        <v/>
+      </c>
+      <c r="P6" s="18">
+        <f>SUM(B6:O6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="19" t="inlineStr">
+        <is>
+          <t>UVR Sem Técnico</t>
+        </is>
+      </c>
+      <c r="B7" s="20">
+        <f>COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="C7" s="20">
+        <f>COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="20">
+        <f>COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="E7" s="20">
+        <f>COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="F7" s="20">
+        <f>COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="G7" s="20">
+        <f>COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="20">
+        <f>COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="I7" s="20">
+        <f>COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="J7" s="20">
+        <f>COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="K7" s="20">
+        <f>COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="L7" s="20">
+        <f>COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="M7" s="20">
+        <f>COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="20">
+        <f>COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="O7" s="20">
+        <f>COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
+        <v/>
+      </c>
+      <c r="P7" s="21">
+        <f>SUM(B7:O7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" s="23">
+        <f>SUM(B2:B7)</f>
+        <v/>
+      </c>
+      <c r="C8" s="23">
+        <f>SUM(C2:C7)</f>
+        <v/>
+      </c>
+      <c r="D8" s="23">
+        <f>SUM(D2:D7)</f>
+        <v/>
+      </c>
+      <c r="E8" s="23">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F8" s="23">
+        <f>SUM(F2:F7)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23">
+        <f>SUM(G2:G7)</f>
+        <v/>
+      </c>
+      <c r="H8" s="23">
+        <f>SUM(H2:H7)</f>
+        <v/>
+      </c>
+      <c r="I8" s="23">
+        <f>SUM(I2:I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="23">
+        <f>SUM(J2:J7)</f>
+        <v/>
+      </c>
+      <c r="K8" s="23">
+        <f>SUM(K2:K7)</f>
+        <v/>
+      </c>
+      <c r="L8" s="23">
+        <f>SUM(L2:L7)</f>
+        <v/>
+      </c>
+      <c r="M8" s="23">
+        <f>SUM(M2:M7)</f>
+        <v/>
+      </c>
+      <c r="N8" s="23">
+        <f>SUM(N2:N7)</f>
+        <v/>
+      </c>
+      <c r="O8" s="23">
+        <f>SUM(O2:O7)</f>
+        <v/>
+      </c>
+      <c r="P8" s="23">
+        <f>SUM(B8:O8)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>"Em Análise"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Sim,Não,Em Análise"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -953,201 +1397,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -1233,201 +1677,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -1513,201 +1957,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -1793,201 +2237,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -2073,201 +2517,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -2326,6 +2770,286 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="B1" s="24" t="inlineStr">
+        <is>
+          <t>Município</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>UVR</t>
+        </is>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>Técnico de UVR</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t>Situação</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>Data de Envio</t>
+        </is>
+      </c>
+      <c r="G1" s="24" t="inlineStr">
+        <is>
+          <t>Validado pelo Regional</t>
+        </is>
+      </c>
+      <c r="H1" s="24" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+      <c r="I1" s="24" t="inlineStr">
+        <is>
+          <t>Formulários para Deletar (ID)</t>
+        </is>
+      </c>
+      <c r="J1" s="24" t="inlineStr">
+        <is>
+          <t>Validado Equip de TI</t>
+        </is>
+      </c>
+      <c r="K1" s="24" t="inlineStr">
+        <is>
+          <t>Resposta Equipe de TI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>Ana Luiza de Araujo e Silva</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B3" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="inlineStr">
+        <is>
+          <t>Herlem Carlen Ferro</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="inlineStr">
+        <is>
+          <t>Monica Goreth Costa Ribeiro</t>
+        </is>
+      </c>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26" t="inlineStr">
+        <is>
+          <t>Thiago da Sailva Santos</t>
+        </is>
+      </c>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2 E3 E4 E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2349,37 +3073,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Mês de referência</t>
         </is>
@@ -2418,233 +3142,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Jackson Souza Soeiro</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>28/12/2024</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -2730,233 +3454,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Jackson Souza Soeiro</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -3032,247 +3756,243 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="87" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>06/03/2025, 06/03/2025</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
+        <is>
+          <t>Jackson Souza Soeiro</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>Corrigido pela técnica regional em 14/04 - Aguardando devolutiva da técnica de UVR</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>07/03/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -3348,267 +4068,247 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="87" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Corrigido</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="30" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>06/03/2025, 06/03/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="inlineStr">
+        <is>
+          <t>Monica Goreth Costa Ribeiro</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
         <is>
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Corrigido</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="inlineStr">
+        <is>
+          <t>Corrigido pela técnica regional em 14/04 - Aguardando devolutiva da técnica de UVR</t>
+        </is>
+      </c>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="C5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26" t="inlineStr">
+        <is>
+          <t>Thiago da Sailva Santos</t>
+        </is>
+      </c>
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>Corrigido</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>ID4643</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>Deletado 4643</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>Corrigido</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -3687,256 +4387,264 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>12/05/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="26" t="inlineStr">
         <is>
           <t>Corrigido</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="26" t="inlineStr">
         <is>
           <t>Corrigido</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="26" t="inlineStr">
         <is>
           <t>Corrigido</t>
         </is>
       </c>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="I4" s="26" t="inlineStr">
+        <is>
+          <t>ID4643</t>
+        </is>
+      </c>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="inlineStr">
+        <is>
+          <t>Deletado 4643</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>09/05/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>Formulário apto</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="H5" s="26" t="inlineStr">
+        <is>
+          <t>Corrigido</t>
+        </is>
+      </c>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -4015,240 +4723,256 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>Corrigido</t>
+        </is>
+      </c>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="inlineStr">
+        <is>
+          <t>Corrigido</t>
+        </is>
+      </c>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="inlineStr">
+        <is>
+          <t>Corrigido</t>
+        </is>
+      </c>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="inlineStr">
+        <is>
+          <t>Formulário apto</t>
+        </is>
+      </c>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -4334,201 +5058,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -4614,201 +5370,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Regional</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Técnico de UVR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Validado pelo Regional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Formulários para Deletar (ID)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Validado Equip de TI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Resposta Equipe de TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="26" t="n"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>Ana Paula</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1378,7 +1378,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1658,7 +1659,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1938,7 +1940,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2218,7 +2221,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2498,7 +2502,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2778,7 +2783,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3058,7 +3064,8 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3123,7 +3130,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3435,7 +3443,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3747,7 +3756,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4059,7 +4069,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4375,7 +4386,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4711,7 +4723,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5039,7 +5052,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5051,7 +5065,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="74" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -5143,12 +5157,16 @@
           <t>18/06/2025</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="26" t="n"/>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>Corrigir o valor de despesa total de operação</t>
+        </is>
+      </c>
       <c r="I2" s="26" t="n"/>
       <c r="J2" s="26" t="inlineStr">
         <is>
@@ -5186,12 +5204,16 @@
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="26" t="n"/>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corrigir valores de receita total e despesas de operação </t>
+        </is>
+      </c>
       <c r="I3" s="26" t="n"/>
       <c r="J3" s="26" t="inlineStr">
         <is>
@@ -5229,12 +5251,16 @@
           <t>12/06/2025</t>
         </is>
       </c>
-      <c r="G4" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="26" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="inlineStr">
+        <is>
+          <t>Corrigir valores de receita total e despesas de operação e manutenção</t>
+        </is>
+      </c>
       <c r="I4" s="26" t="n"/>
       <c r="J4" s="26" t="inlineStr">
         <is>
@@ -5272,12 +5298,16 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H5" s="26" t="n"/>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="inlineStr">
+        <is>
+          <t>Corrigir valores do filme stretch</t>
+        </is>
+      </c>
       <c r="I5" s="26" t="n"/>
       <c r="J5" s="26" t="inlineStr">
         <is>
@@ -5351,7 +5381,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -22,7 +22,7 @@
     <sheet name="10.25" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="11.25" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="12.25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="irregulares" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Irregulares" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'11.24'!$A$1:$G$1</definedName>
@@ -3061,7 +3061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3069,15 +3069,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="inlineStr">
@@ -3113,6 +3104,16 @@
       <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Mês de referência</t>
+        </is>
+      </c>
+      <c r="H1" s="24" t="inlineStr">
+        <is>
+          <t>Validado pelo Regional</t>
+        </is>
+      </c>
+      <c r="I1" s="24" t="inlineStr">
+        <is>
+          <t>Observações</t>
         </is>
       </c>
     </row>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -39,6 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Irregulares'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3061,7 +3062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3093,31 +3094,27 @@
       </c>
       <c r="E1" s="24" t="inlineStr">
         <is>
-          <t>Situação</t>
+          <t>Data de Envio</t>
         </is>
       </c>
       <c r="F1" s="24" t="inlineStr">
         <is>
-          <t>Data de Envio</t>
+          <t>Mês de referência</t>
         </is>
       </c>
       <c r="G1" s="24" t="inlineStr">
         <is>
-          <t>Mês de referência</t>
+          <t>Validado pelo Regional</t>
         </is>
       </c>
       <c r="H1" s="24" t="inlineStr">
         <is>
-          <t>Validado pelo Regional</t>
-        </is>
-      </c>
-      <c r="I1" s="24" t="inlineStr">
-        <is>
           <t>Observações</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -190,6 +190,12 @@
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +351,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5474,7 +5483,11 @@
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="26" t="n"/>
+      <c r="E2" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="26" t="n"/>
       <c r="G2" s="29" t="inlineStr">
         <is>
@@ -5509,7 +5522,11 @@
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="26" t="n"/>
       <c r="G3" s="29" t="inlineStr">
         <is>
@@ -5544,7 +5561,11 @@
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="26" t="n"/>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="26" t="n"/>
       <c r="G4" s="29" t="inlineStr">
         <is>
@@ -5579,7 +5600,11 @@
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="26" t="n"/>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="26" t="n"/>
       <c r="G5" s="29" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1397,7 +1397,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -1478,10 +1478,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -1513,10 +1512,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -1548,10 +1546,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -1583,10 +1580,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -1678,7 +1674,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -1759,10 +1755,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -1794,10 +1789,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -1829,10 +1823,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -1864,10 +1857,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -1959,7 +1951,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -2040,10 +2032,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -2075,10 +2066,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -2110,10 +2100,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -2145,10 +2134,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -2240,7 +2228,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -2321,10 +2309,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -2356,10 +2343,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -2391,10 +2377,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -2426,10 +2411,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -2521,7 +2505,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -2602,10 +2586,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -2637,10 +2620,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -2672,10 +2654,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -2707,10 +2688,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -2802,7 +2782,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -2883,10 +2863,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="26" t="n"/>
       <c r="F2" s="26" t="n"/>
@@ -2918,10 +2897,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="26" t="n"/>
@@ -2953,10 +2931,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="26" t="n"/>
       <c r="F4" s="26" t="n"/>
@@ -2988,10 +2965,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="26" t="n"/>
       <c r="F5" s="26" t="n"/>
@@ -3146,7 +3122,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -3227,10 +3203,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -3270,10 +3245,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
@@ -3313,10 +3287,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Jackson Souza Soeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -3356,10 +3329,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -3459,7 +3431,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -3540,10 +3512,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -3583,10 +3554,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
@@ -3626,10 +3596,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Jackson Souza Soeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -3669,10 +3638,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -3772,7 +3740,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -4085,7 +4053,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -4166,10 +4134,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -4209,10 +4176,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="30" t="inlineStr">
         <is>
@@ -4252,10 +4218,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -4299,10 +4264,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -4402,7 +4366,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -4483,10 +4447,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -4530,10 +4493,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
@@ -4577,10 +4539,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -4632,10 +4593,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -4739,7 +4699,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -4820,10 +4780,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -4867,10 +4826,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
@@ -4914,10 +4872,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -4961,10 +4918,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -5068,7 +5024,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -5149,10 +5105,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="27" t="inlineStr">
         <is>
@@ -5196,10 +5151,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
@@ -5243,10 +5197,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
@@ -5290,10 +5243,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
@@ -5397,7 +5349,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -5478,10 +5430,9 @@
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
+      <c r="D2" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="31" t="inlineStr">
         <is>
@@ -5517,10 +5468,9 @@
       <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>Herlem Carlen Ferro</t>
-        </is>
+      <c r="D3" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="31" t="inlineStr">
         <is>
@@ -5556,10 +5506,9 @@
       <c r="C4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="inlineStr">
-        <is>
-          <t>Monica Goreth Costa Ribeiro</t>
-        </is>
+      <c r="D4" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="31" t="inlineStr">
         <is>
@@ -5595,10 +5544,9 @@
       <c r="C5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="inlineStr">
-        <is>
-          <t>Thiago da Sailva Santos</t>
-        </is>
+      <c r="D5" s="26">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="31" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -3047,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3055,6 +3055,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="inlineStr">
@@ -3097,9 +3110,90 @@
           <t>Observações</t>
         </is>
       </c>
+      <c r="I1" s="24" t="inlineStr">
+        <is>
+          <t>Formulários para Deletar (ID)</t>
+        </is>
+      </c>
+      <c r="J1" s="24" t="inlineStr">
+        <is>
+          <t>Validado Equipe de TI</t>
+        </is>
+      </c>
+      <c r="K1" s="24" t="inlineStr">
+        <is>
+          <t>Resposta Equipe de TI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>Ana Paula</t>
+        </is>
+      </c>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>Belém</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>Ana Luiza de Araujo e Silva</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>02.13</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr"/>
+      <c r="I2" s="26" t="inlineStr"/>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="G2 J2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5548,12 +5642,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -3047,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3055,19 +3055,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
-    <col width="26" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="inlineStr">
@@ -3126,74 +3113,8 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="inlineStr">
-        <is>
-          <t>Ana Paula</t>
-        </is>
-      </c>
-      <c r="B2" s="26" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C2" s="26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Ana Luiza de Araujo e Silva</t>
-        </is>
-      </c>
-      <c r="E2" s="26" t="inlineStr">
-        <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="inlineStr">
-        <is>
-          <t>02.13</t>
-        </is>
-      </c>
-      <c r="G2" s="26" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="26" t="inlineStr"/>
-      <c r="I2" s="26" t="inlineStr"/>
-      <c r="J2" s="26" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="26" t="inlineStr"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="G2 J2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4003,7 +3924,7 @@
       </c>
       <c r="D4" s="26" t="inlineStr">
         <is>
-          <t>Jackson Souza Soeiro</t>
+          <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
       <c r="E4" s="27" t="inlineStr">
@@ -5528,12 +5449,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
       <c r="G2" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5566,12 +5491,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>13/07/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -190,12 +190,6 @@
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -261,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -351,9 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5533,12 +5524,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -4202,10 +4202,14 @@
         </is>
       </c>
       <c r="H3" s="26" t="n"/>
-      <c r="I3" s="26" t="n"/>
+      <c r="I3" s="26" t="inlineStr">
+        <is>
+          <t>Deletar 4308</t>
+        </is>
+      </c>
       <c r="J3" s="26" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K3" s="26" t="n"/>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -190,6 +190,12 @@
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +351,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,7 +1482,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
+      <c r="E2" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="26" t="n"/>
       <c r="G2" s="29" t="inlineStr">
         <is>
@@ -1507,7 +1520,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="26" t="n"/>
       <c r="G3" s="29" t="inlineStr">
         <is>
@@ -1541,7 +1558,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="26" t="n"/>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="26" t="n"/>
       <c r="G4" s="29" t="inlineStr">
         <is>
@@ -1575,7 +1596,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="26" t="n"/>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="26" t="n"/>
       <c r="G5" s="29" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -186,12 +186,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6400"/>
         <bgColor rgb="00FF6400"/>
       </patternFill>
@@ -261,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -351,9 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,12 +1473,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>14/08/2025</t>
+        </is>
+      </c>
       <c r="G2" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1520,12 +1515,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>19/08/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1558,7 +1557,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="31" t="inlineStr">
+      <c r="E4" s="30" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -1596,12 +1595,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>14/08/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4085,8 +4088,8 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="87" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -4211,14 +4214,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="30" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F3" s="26" t="inlineStr">
         <is>
-          <t>06/03/2025, 06/03/2025</t>
+          <t>06/03/2025</t>
         </is>
       </c>
       <c r="G3" s="29" t="inlineStr">
@@ -4234,10 +4237,14 @@
       </c>
       <c r="J3" s="26" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K3" s="26" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="inlineStr">
+        <is>
+          <t>Deletado ID 4308</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="inlineStr">

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1557,12 +1557,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>26/08/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1778,7 +1782,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
+      <c r="E2" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="26" t="n"/>
       <c r="G2" s="29" t="inlineStr">
         <is>
@@ -1812,7 +1820,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="26" t="n"/>
       <c r="G3" s="29" t="inlineStr">
         <is>
@@ -1846,7 +1858,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="26" t="n"/>
+      <c r="E4" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="26" t="n"/>
       <c r="G4" s="29" t="inlineStr">
         <is>
@@ -1880,7 +1896,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="26" t="n"/>
+      <c r="E5" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="26" t="n"/>
       <c r="G5" s="29" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -1782,12 +1782,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
       <c r="G2" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1820,12 +1824,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1896,12 +1904,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -162,6 +162,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0066FF66"/>
         <bgColor rgb="0066FF66"/>
       </patternFill>
@@ -180,8 +198,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -255,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -329,22 +365,25 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1698,7 +1737,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -1868,7 +1907,7 @@
       </c>
       <c r="E4" s="30" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="26" t="n"/>
@@ -2087,7 +2126,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
+      <c r="E2" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="26" t="n"/>
       <c r="G2" s="29" t="inlineStr">
         <is>
@@ -2121,7 +2164,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="26" t="n"/>
       <c r="G3" s="29" t="inlineStr">
         <is>
@@ -2155,7 +2202,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="26" t="n"/>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="26" t="n"/>
       <c r="G4" s="29" t="inlineStr">
         <is>
@@ -2189,7 +2240,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="26" t="n"/>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="26" t="n"/>
       <c r="G5" s="29" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -210,14 +210,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -378,9 +378,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1737,7 +1734,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -1905,12 +1902,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2126,7 +2127,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="31" t="inlineStr">
+      <c r="E2" s="30" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -2164,7 +2165,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="31" t="inlineStr">
+      <c r="E3" s="30" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -2202,7 +2203,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="31" t="inlineStr">
+      <c r="E4" s="30" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -2240,7 +2241,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="31" t="inlineStr">
+      <c r="E5" s="30" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -206,18 +206,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -380,7 +368,7 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,12 +2115,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
       <c r="G2" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2165,12 +2157,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2203,12 +2199,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2241,12 +2241,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2420,7 +2424,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
+      <c r="E2" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="26" t="n"/>
       <c r="G2" s="29" t="inlineStr">
         <is>
@@ -2454,7 +2462,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="26" t="n"/>
       <c r="G3" s="29" t="inlineStr">
         <is>
@@ -2488,7 +2500,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="26" t="n"/>
+      <c r="E4" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="26" t="n"/>
       <c r="G4" s="29" t="inlineStr">
         <is>
@@ -2522,7 +2538,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="26" t="n"/>
+      <c r="E5" s="30" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="26" t="n"/>
       <c r="G5" s="29" t="inlineStr">
         <is>

--- a/outputs/belem_atualizado_form4.xlsx
+++ b/outputs/belem_atualizado_form4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -162,30 +162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993399"/>
-        <bgColor rgb="FF993399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066FF66"/>
-        <bgColor rgb="0066FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00993399"/>
         <bgColor rgb="00993399"/>
       </patternFill>
@@ -198,8 +174,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
+        <fgColor rgb="0066FF66"/>
+        <bgColor rgb="0066FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -353,29 +329,29 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -462,6 +438,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1684,7 +1673,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1993,7 +1982,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2302,7 +2291,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2538,12 +2527,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2595,7 +2588,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2717,8 +2710,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
-      <c r="F2" s="26" t="n"/>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
       <c r="G2" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2785,8 +2786,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="26" t="n"/>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2872,7 +2881,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3149,7 +3158,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3536,7 +3545,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,7 +3854,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4158,7 +4167,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4479,7 +4488,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4812,7 +4821,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5137,7 +5146,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5462,7 +5471,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5771,7 +5780,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
